--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.90784933333333</v>
+        <v>14.82793633333333</v>
       </c>
       <c r="H2">
-        <v>41.72354799999999</v>
+        <v>44.483809</v>
       </c>
       <c r="I2">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="J2">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.2774</v>
+        <v>81.76504766666666</v>
       </c>
       <c r="N2">
-        <v>177.8322</v>
+        <v>245.295143</v>
       </c>
       <c r="O2">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271184</v>
       </c>
       <c r="P2">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271185</v>
       </c>
       <c r="Q2">
-        <v>824.4211480717332</v>
+        <v>1212.406921093298</v>
       </c>
       <c r="R2">
-        <v>7419.790332645599</v>
+        <v>10911.66228983969</v>
       </c>
       <c r="S2">
-        <v>0.0263070552117675</v>
+        <v>0.01196373193649376</v>
       </c>
       <c r="T2">
-        <v>0.0263070552117675</v>
+        <v>0.01196373193649376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.90784933333333</v>
+        <v>14.82793633333333</v>
       </c>
       <c r="H3">
-        <v>41.72354799999999</v>
+        <v>44.483809</v>
       </c>
       <c r="I3">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="J3">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>67.954674</v>
       </c>
       <c r="O3">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="P3">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="Q3">
-        <v>315.0344558292613</v>
+        <v>335.8758598748073</v>
       </c>
       <c r="R3">
-        <v>2835.310102463352</v>
+        <v>3022.882738873266</v>
       </c>
       <c r="S3">
-        <v>0.01005266403281105</v>
+        <v>0.003314339997216423</v>
       </c>
       <c r="T3">
-        <v>0.01005266403281105</v>
+        <v>0.003314339997216423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.90784933333333</v>
+        <v>14.82793633333333</v>
       </c>
       <c r="H4">
-        <v>41.72354799999999</v>
+        <v>44.483809</v>
       </c>
       <c r="I4">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="J4">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.82329266666666</v>
+        <v>92.136571</v>
       </c>
       <c r="N4">
-        <v>293.469878</v>
+        <v>276.409713</v>
       </c>
       <c r="O4">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763996</v>
       </c>
       <c r="P4">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763997</v>
       </c>
       <c r="Q4">
-        <v>1360.511615698571</v>
+        <v>1366.195208759646</v>
       </c>
       <c r="R4">
-        <v>12244.60454128714</v>
+        <v>12295.75687883682</v>
       </c>
       <c r="S4">
-        <v>0.04341355661987352</v>
+        <v>0.01348127676125725</v>
       </c>
       <c r="T4">
-        <v>0.04341355661987352</v>
+        <v>0.01348127676125725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.90784933333333</v>
+        <v>14.82793633333333</v>
       </c>
       <c r="H5">
-        <v>41.72354799999999</v>
+        <v>44.483809</v>
       </c>
       <c r="I5">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="J5">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.275345333333334</v>
+        <v>4.300069</v>
       </c>
       <c r="N5">
-        <v>9.826036</v>
+        <v>12.900207</v>
       </c>
       <c r="O5">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="P5">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="Q5">
-        <v>45.55300941063644</v>
+        <v>63.76114936094033</v>
       </c>
       <c r="R5">
-        <v>409.977084695728</v>
+        <v>573.850344248463</v>
       </c>
       <c r="S5">
-        <v>0.001453584174096789</v>
+        <v>0.0006291792678230091</v>
       </c>
       <c r="T5">
-        <v>0.001453584174096789</v>
+        <v>0.0006291792678230092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.90784933333333</v>
+        <v>14.82793633333333</v>
       </c>
       <c r="H6">
-        <v>41.72354799999999</v>
+        <v>44.483809</v>
       </c>
       <c r="I6">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="J6">
-        <v>0.1207733168803041</v>
+        <v>0.04809816098739855</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>89.109599</v>
+        <v>127.8693006666667</v>
       </c>
       <c r="N6">
-        <v>267.328797</v>
+        <v>383.607902</v>
       </c>
       <c r="O6">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="P6">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="Q6">
-        <v>1239.322877045751</v>
+        <v>1896.037849273191</v>
       </c>
       <c r="R6">
-        <v>11153.90589341175</v>
+        <v>17064.34064345872</v>
       </c>
       <c r="S6">
-        <v>0.03954645684175524</v>
+        <v>0.0187096330246081</v>
       </c>
       <c r="T6">
-        <v>0.03954645684175524</v>
+        <v>0.01870963302460811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7.039403</v>
       </c>
       <c r="I7">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195336</v>
       </c>
       <c r="J7">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2774</v>
+        <v>81.76504766666666</v>
       </c>
       <c r="N7">
-        <v>177.8322</v>
+        <v>245.295143</v>
       </c>
       <c r="O7">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271184</v>
       </c>
       <c r="P7">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271185</v>
       </c>
       <c r="Q7">
-        <v>139.0925024640667</v>
+        <v>191.8590406132921</v>
       </c>
       <c r="R7">
-        <v>1251.8325221766</v>
+        <v>1726.731365519629</v>
       </c>
       <c r="S7">
-        <v>0.004438404024961679</v>
+        <v>0.001893217608342621</v>
       </c>
       <c r="T7">
-        <v>0.004438404024961679</v>
+        <v>0.001893217608342621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7.039403</v>
       </c>
       <c r="I8">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195336</v>
       </c>
       <c r="J8">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>67.954674</v>
       </c>
       <c r="O8">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="P8">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="Q8">
         <v>53.15114844662467</v>
@@ -948,10 +948,10 @@
         <v>478.360336019622</v>
       </c>
       <c r="S8">
-        <v>0.001696038729749498</v>
+        <v>0.0005244824003139047</v>
       </c>
       <c r="T8">
-        <v>0.001696038729749498</v>
+        <v>0.0005244824003139047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7.039403</v>
       </c>
       <c r="I9">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195336</v>
       </c>
       <c r="J9">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>97.82329266666666</v>
+        <v>92.136571</v>
       </c>
       <c r="N9">
-        <v>293.469878</v>
+        <v>276.409713</v>
       </c>
       <c r="O9">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763996</v>
       </c>
       <c r="P9">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763997</v>
       </c>
       <c r="Q9">
-        <v>229.5391932892038</v>
+        <v>216.1954847690377</v>
       </c>
       <c r="R9">
-        <v>2065.852739602834</v>
+        <v>1945.759362921339</v>
       </c>
       <c r="S9">
-        <v>0.007324533395640456</v>
+        <v>0.002133363626235887</v>
       </c>
       <c r="T9">
-        <v>0.007324533395640456</v>
+        <v>0.002133363626235887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7.039403</v>
       </c>
       <c r="I10">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195336</v>
       </c>
       <c r="J10">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195337</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.275345333333334</v>
+        <v>4.300069</v>
       </c>
       <c r="N10">
-        <v>9.826036</v>
+        <v>12.900207</v>
       </c>
       <c r="O10">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="P10">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="Q10">
-        <v>7.685491921834223</v>
+        <v>10.08997287293567</v>
       </c>
       <c r="R10">
-        <v>69.169427296508</v>
+        <v>90.80975585642101</v>
       </c>
       <c r="S10">
-        <v>0.000245241962545694</v>
+        <v>9.956535928501747E-05</v>
       </c>
       <c r="T10">
-        <v>0.000245241962545694</v>
+        <v>9.956535928501749E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7.039403</v>
       </c>
       <c r="I11">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195336</v>
       </c>
       <c r="J11">
-        <v>0.0203763124163641</v>
+        <v>0.007611361220195337</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>89.109599</v>
+        <v>127.8693006666667</v>
       </c>
       <c r="N11">
-        <v>267.328797</v>
+        <v>383.607902</v>
       </c>
       <c r="O11">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="P11">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="Q11">
-        <v>209.0927928431323</v>
+        <v>300.0411795736118</v>
       </c>
       <c r="R11">
-        <v>1881.835135588191</v>
+        <v>2700.370616162506</v>
       </c>
       <c r="S11">
-        <v>0.006672094303466771</v>
+        <v>0.002960732226017906</v>
       </c>
       <c r="T11">
-        <v>0.006672094303466771</v>
+        <v>0.002960732226017906</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.76359833333333</v>
+        <v>134.1796616666666</v>
       </c>
       <c r="H12">
-        <v>80.290795</v>
+        <v>402.538985</v>
       </c>
       <c r="I12">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741633</v>
       </c>
       <c r="J12">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741634</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.2774</v>
+        <v>81.76504766666666</v>
       </c>
       <c r="N12">
-        <v>177.8322</v>
+        <v>245.295143</v>
       </c>
       <c r="O12">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271184</v>
       </c>
       <c r="P12">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271185</v>
       </c>
       <c r="Q12">
-        <v>1586.476523844333</v>
+        <v>10971.2064320722</v>
       </c>
       <c r="R12">
-        <v>14278.288714599</v>
+        <v>98740.85788864984</v>
       </c>
       <c r="S12">
-        <v>0.05062403554610711</v>
+        <v>0.1082611543118594</v>
       </c>
       <c r="T12">
-        <v>0.05062403554610712</v>
+        <v>0.1082611543118594</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.76359833333333</v>
+        <v>134.1796616666666</v>
       </c>
       <c r="H13">
-        <v>80.290795</v>
+        <v>402.538985</v>
       </c>
       <c r="I13">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741633</v>
       </c>
       <c r="J13">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741634</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>67.954674</v>
       </c>
       <c r="O13">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="P13">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="Q13">
-        <v>606.2371999362033</v>
+        <v>3039.378388662876</v>
       </c>
       <c r="R13">
-        <v>5456.13479942583</v>
+        <v>27354.40549796589</v>
       </c>
       <c r="S13">
-        <v>0.01934486460888478</v>
+        <v>0.02999183497133533</v>
       </c>
       <c r="T13">
-        <v>0.01934486460888478</v>
+        <v>0.02999183497133533</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.76359833333333</v>
+        <v>134.1796616666666</v>
       </c>
       <c r="H14">
-        <v>80.290795</v>
+        <v>402.538985</v>
       </c>
       <c r="I14">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741633</v>
       </c>
       <c r="J14">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741634</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.82329266666666</v>
+        <v>92.136571</v>
       </c>
       <c r="N14">
-        <v>293.469878</v>
+        <v>276.409713</v>
       </c>
       <c r="O14">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763996</v>
       </c>
       <c r="P14">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763997</v>
       </c>
       <c r="Q14">
-        <v>2618.103312574779</v>
+        <v>12362.85392390681</v>
       </c>
       <c r="R14">
-        <v>23562.92981317301</v>
+        <v>111265.6853151613</v>
       </c>
       <c r="S14">
-        <v>0.08354296654702419</v>
+        <v>0.1219935879137638</v>
       </c>
       <c r="T14">
-        <v>0.0835429665470242</v>
+        <v>0.1219935879137639</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.76359833333333</v>
+        <v>134.1796616666666</v>
       </c>
       <c r="H15">
-        <v>80.290795</v>
+        <v>402.538985</v>
       </c>
       <c r="I15">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741633</v>
       </c>
       <c r="J15">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741634</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.275345333333334</v>
+        <v>4.300069</v>
       </c>
       <c r="N15">
-        <v>9.826036</v>
+        <v>12.900207</v>
       </c>
       <c r="O15">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="P15">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="Q15">
-        <v>87.66002690429112</v>
+        <v>576.9818035633216</v>
       </c>
       <c r="R15">
-        <v>788.9402421386201</v>
+        <v>5192.836232069894</v>
       </c>
       <c r="S15">
-        <v>0.002797207680843672</v>
+        <v>0.00569351387720681</v>
       </c>
       <c r="T15">
-        <v>0.002797207680843673</v>
+        <v>0.005693513877206812</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.76359833333333</v>
+        <v>134.1796616666666</v>
       </c>
       <c r="H16">
-        <v>80.290795</v>
+        <v>402.538985</v>
       </c>
       <c r="I16">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741633</v>
       </c>
       <c r="J16">
-        <v>0.2324103795560852</v>
+        <v>0.4352456621741634</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>89.109599</v>
+        <v>127.8693006666667</v>
       </c>
       <c r="N16">
-        <v>267.328797</v>
+        <v>383.607902</v>
       </c>
       <c r="O16">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="P16">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="Q16">
-        <v>2384.893515280402</v>
+        <v>17157.4595010066</v>
       </c>
       <c r="R16">
-        <v>21464.04163752362</v>
+        <v>154417.1355090594</v>
       </c>
       <c r="S16">
-        <v>0.07610130517322537</v>
+        <v>0.1693055710999978</v>
       </c>
       <c r="T16">
-        <v>0.07610130517322539</v>
+        <v>0.1693055710999979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6302099999999999</v>
+        <v>0.961127</v>
       </c>
       <c r="H17">
-        <v>1.89063</v>
+        <v>2.883381</v>
       </c>
       <c r="I17">
-        <v>0.005472632770669679</v>
+        <v>0.003117658461441694</v>
       </c>
       <c r="J17">
-        <v>0.00547263277066968</v>
+        <v>0.003117658461441695</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.2774</v>
+        <v>81.76504766666666</v>
       </c>
       <c r="N17">
-        <v>177.8322</v>
+        <v>245.295143</v>
       </c>
       <c r="O17">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271184</v>
       </c>
       <c r="P17">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271185</v>
       </c>
       <c r="Q17">
-        <v>37.35721025399999</v>
+        <v>78.58659496872032</v>
       </c>
       <c r="R17">
-        <v>336.214892286</v>
+        <v>707.279354718483</v>
       </c>
       <c r="S17">
-        <v>0.001192058446108753</v>
+        <v>0.0007754731020173948</v>
       </c>
       <c r="T17">
-        <v>0.001192058446108754</v>
+        <v>0.000775473102017395</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6302099999999999</v>
+        <v>0.961127</v>
       </c>
       <c r="H18">
-        <v>1.89063</v>
+        <v>2.883381</v>
       </c>
       <c r="I18">
-        <v>0.005472632770669679</v>
+        <v>0.003117658461441694</v>
       </c>
       <c r="J18">
-        <v>0.00547263277066968</v>
+        <v>0.003117658461441695</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>67.954674</v>
       </c>
       <c r="O18">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="P18">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="Q18">
-        <v>14.27523836718</v>
+        <v>21.771023985866</v>
       </c>
       <c r="R18">
-        <v>128.47714530462</v>
+        <v>195.939215872794</v>
       </c>
       <c r="S18">
-        <v>0.0004555189841562265</v>
+        <v>0.00021483108551954</v>
       </c>
       <c r="T18">
-        <v>0.0004555189841562265</v>
+        <v>0.0002148310855195401</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6302099999999999</v>
+        <v>0.961127</v>
       </c>
       <c r="H19">
-        <v>1.89063</v>
+        <v>2.883381</v>
       </c>
       <c r="I19">
-        <v>0.005472632770669679</v>
+        <v>0.003117658461441694</v>
       </c>
       <c r="J19">
-        <v>0.00547263277066968</v>
+        <v>0.003117658461441695</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>97.82329266666666</v>
+        <v>92.136571</v>
       </c>
       <c r="N19">
-        <v>293.469878</v>
+        <v>276.409713</v>
       </c>
       <c r="O19">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763996</v>
       </c>
       <c r="P19">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763997</v>
       </c>
       <c r="Q19">
-        <v>61.64921727145999</v>
+        <v>88.55494607551699</v>
       </c>
       <c r="R19">
-        <v>554.8429554431399</v>
+        <v>796.994514679653</v>
       </c>
       <c r="S19">
-        <v>0.001967209800859492</v>
+        <v>0.0008738383277643937</v>
       </c>
       <c r="T19">
-        <v>0.001967209800859493</v>
+        <v>0.000873838327764394</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6302099999999999</v>
+        <v>0.961127</v>
       </c>
       <c r="H20">
-        <v>1.89063</v>
+        <v>2.883381</v>
       </c>
       <c r="I20">
-        <v>0.005472632770669679</v>
+        <v>0.003117658461441694</v>
       </c>
       <c r="J20">
-        <v>0.00547263277066968</v>
+        <v>0.003117658461441695</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.275345333333334</v>
+        <v>4.300069</v>
       </c>
       <c r="N20">
-        <v>9.826036</v>
+        <v>12.900207</v>
       </c>
       <c r="O20">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="P20">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="Q20">
-        <v>2.06415538252</v>
+        <v>4.132912417762999</v>
       </c>
       <c r="R20">
-        <v>18.57739844268</v>
+        <v>37.196211759867</v>
       </c>
       <c r="S20">
-        <v>6.586663835665684E-05</v>
+        <v>4.078255858069114E-05</v>
       </c>
       <c r="T20">
-        <v>6.586663835665685E-05</v>
+        <v>4.078255858069115E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6302099999999999</v>
+        <v>0.961127</v>
       </c>
       <c r="H21">
-        <v>1.89063</v>
+        <v>2.883381</v>
       </c>
       <c r="I21">
-        <v>0.005472632770669679</v>
+        <v>0.003117658461441694</v>
       </c>
       <c r="J21">
-        <v>0.00547263277066968</v>
+        <v>0.003117658461441695</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>89.109599</v>
+        <v>127.8693006666667</v>
       </c>
       <c r="N21">
-        <v>267.328797</v>
+        <v>383.607902</v>
       </c>
       <c r="O21">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="P21">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="Q21">
-        <v>56.15776038579</v>
+        <v>122.8986373418513</v>
       </c>
       <c r="R21">
-        <v>505.41984347211</v>
+        <v>1106.087736076662</v>
       </c>
       <c r="S21">
-        <v>0.001791978901188549</v>
+        <v>0.001212733387559674</v>
       </c>
       <c r="T21">
-        <v>0.00179197890118855</v>
+        <v>0.001212733387559675</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>71.50851433333334</v>
+        <v>155.9696986666667</v>
       </c>
       <c r="H22">
-        <v>214.525543</v>
+        <v>467.909096</v>
       </c>
       <c r="I22">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="J22">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.2774</v>
+        <v>81.76504766666666</v>
       </c>
       <c r="N22">
-        <v>177.8322</v>
+        <v>245.295143</v>
       </c>
       <c r="O22">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271184</v>
       </c>
       <c r="P22">
-        <v>0.2178217497979282</v>
+        <v>0.2487357456271185</v>
       </c>
       <c r="Q22">
-        <v>4238.838807542734</v>
+        <v>12752.86984603564</v>
       </c>
       <c r="R22">
-        <v>38149.5492678846</v>
+        <v>114775.8286143207</v>
       </c>
       <c r="S22">
-        <v>0.1352601965689832</v>
+        <v>0.1258421686684053</v>
       </c>
       <c r="T22">
-        <v>0.1352601965689832</v>
+        <v>0.1258421686684053</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>71.50851433333334</v>
+        <v>155.9696986666667</v>
       </c>
       <c r="H23">
-        <v>214.525543</v>
+        <v>467.909096</v>
       </c>
       <c r="I23">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="J23">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>67.954674</v>
       </c>
       <c r="O23">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="P23">
-        <v>0.08323580317640886</v>
+        <v>0.06890783200806287</v>
       </c>
       <c r="Q23">
-        <v>1619.779259915331</v>
+        <v>3532.956675590522</v>
       </c>
       <c r="R23">
-        <v>14578.01333923798</v>
+        <v>31796.6100803147</v>
       </c>
       <c r="S23">
-        <v>0.0516867168208073</v>
+        <v>0.03486234355367767</v>
       </c>
       <c r="T23">
-        <v>0.0516867168208073</v>
+        <v>0.03486234355367767</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>71.50851433333334</v>
+        <v>155.9696986666667</v>
       </c>
       <c r="H24">
-        <v>214.525543</v>
+        <v>467.909096</v>
       </c>
       <c r="I24">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="J24">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>97.82329266666666</v>
+        <v>92.136571</v>
       </c>
       <c r="N24">
-        <v>293.469878</v>
+        <v>276.409713</v>
       </c>
       <c r="O24">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763996</v>
       </c>
       <c r="P24">
-        <v>0.3594631475005343</v>
+        <v>0.2802867403763997</v>
       </c>
       <c r="Q24">
-        <v>6995.198325788195</v>
+        <v>14370.51321504994</v>
       </c>
       <c r="R24">
-        <v>62956.78493209375</v>
+        <v>129334.6189354494</v>
       </c>
       <c r="S24">
-        <v>0.2232148811371366</v>
+        <v>0.1418046737473782</v>
       </c>
       <c r="T24">
-        <v>0.2232148811371366</v>
+        <v>0.1418046737473782</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>71.50851433333334</v>
+        <v>155.9696986666667</v>
       </c>
       <c r="H25">
-        <v>214.525543</v>
+        <v>467.909096</v>
       </c>
       <c r="I25">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="J25">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.275345333333334</v>
+        <v>4.300069</v>
       </c>
       <c r="N25">
-        <v>9.826036</v>
+        <v>12.900207</v>
       </c>
       <c r="O25">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="P25">
-        <v>0.01203564008710141</v>
+        <v>0.01308115019174747</v>
       </c>
       <c r="Q25">
-        <v>234.2150787152831</v>
+        <v>670.6804661758746</v>
       </c>
       <c r="R25">
-        <v>2107.935708437548</v>
+        <v>6036.124195582872</v>
       </c>
       <c r="S25">
-        <v>0.007473739631258597</v>
+        <v>0.006618109128851939</v>
       </c>
       <c r="T25">
-        <v>0.007473739631258597</v>
+        <v>0.00661810912885194</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.50851433333334</v>
+        <v>155.9696986666667</v>
       </c>
       <c r="H26">
-        <v>214.525543</v>
+        <v>467.909096</v>
       </c>
       <c r="I26">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="J26">
-        <v>0.6209673583765769</v>
+        <v>0.505927157156801</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>89.109599</v>
+        <v>127.8693006666667</v>
       </c>
       <c r="N26">
-        <v>267.328797</v>
+        <v>383.607902</v>
       </c>
       <c r="O26">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="P26">
-        <v>0.3274436594380272</v>
+        <v>0.3889885317966715</v>
       </c>
       <c r="Q26">
-        <v>6372.095037329086</v>
+        <v>19943.7362936974</v>
       </c>
       <c r="R26">
-        <v>57348.85533596177</v>
+        <v>179493.6266432766</v>
       </c>
       <c r="S26">
-        <v>0.2033318242183912</v>
+        <v>0.1967998620584879</v>
       </c>
       <c r="T26">
-        <v>0.2033318242183912</v>
+        <v>0.1967998620584879</v>
       </c>
     </row>
   </sheetData>
